--- a/biology/Zoologie/Fauvette_naine/Fauvette_naine.xlsx
+++ b/biology/Zoologie/Fauvette_naine/Fauvette_naine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Curruca nana
 La Fauvette naine (Curruca nana) est une espèce de passereaux de la famille des Sylviidae qui vit dans des régions arides ou steppiques. Jusqu'à une date récente, elle était considérée comme conspécifique à la fauvette du désert qui vit uniquement en Afrique du Nord.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un tout petit passereau de 11,5 à 12,5 cm de longueur de couleur gris jaunâtre avec des bandes blanches sur les côtés de la queue. Ses yeux ont un iris jaune prononcé. Ses pattes et son bec mince sont jaune pâle. Le dimorphisme sexuel n'est pas prononcé.
 Son chant est un son distinctif aux notes claires, poussé souvent lors d'un vol d'avertissement.
@@ -544,7 +558,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Salicaria aralensis Eversmann, 1850</t>
         </is>
@@ -574,10 +590,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est répandue dans les régions steppiques de la Volga, ainsi que dans les régions semi-désertiques et arides  autour de la mer Caspienne, dans les régions semi-désertiques d'Asie centrale, jusqu'en Iran et en Mongolie-Intérieure[1]. Elle migre en hiver dans des habitats similaires vers l'ouest jusque dans la péninsule Arabique, les bords de la mer Rouge et même au nord de l'Inde.
-En France, une première observation de l'oiseau a été établie en 2015 en Vendée[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est répandue dans les régions steppiques de la Volga, ainsi que dans les régions semi-désertiques et arides  autour de la mer Caspienne, dans les régions semi-désertiques d'Asie centrale, jusqu'en Iran et en Mongolie-Intérieure. Elle migre en hiver dans des habitats similaires vers l'ouest jusque dans la péninsule Arabique, les bords de la mer Rouge et même au nord de l'Inde.
+En France, une première observation de l'oiseau a été établie en 2015 en Vendée.
 Elle est en constante diminution atteignant environ 10 000 individus adultes.
 </t>
         </is>
@@ -607,7 +625,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La fauvette naine est insectivore, mais peut se nourrir aussi de petites baies. Contrairement à la plupart des fauvettes, elle se nourrit au sol.
 </t>
@@ -638,7 +658,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle niche dans des environnements désertiques ou semi-désertiques où l'on trouve des buissons isolés pour la nidification. Le nid est construit dans de petits arbustes, et elle y pond de quatre à cinq œufs blancs mouchetés de brun.
 </t>
@@ -669,9 +691,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La fauvette naine faisait anciennement partie du genre Sylvia, mais a depuis été reclassée dans le genre Curruca après que celui-ci a été séparé de Sylvia[3].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fauvette naine faisait anciennement partie du genre Sylvia, mais a depuis été reclassée dans le genre Curruca après que celui-ci a été séparé de Sylvia.
 </t>
         </is>
       </c>
